--- a/Proyecto2/Configuración VLSM-FLSM_Proyecto2.xlsx
+++ b/Proyecto2/Configuración VLSM-FLSM_Proyecto2.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VLSM" sheetId="1" r:id="rId1"/>
+    <sheet name="Vlan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
   <si>
     <t>Configuración VLSM</t>
   </si>
@@ -373,6 +374,78 @@
   <si>
     <t>192.167.09.55</t>
   </si>
+  <si>
+    <t>VPC 14</t>
+  </si>
+  <si>
+    <t>VPC 8</t>
+  </si>
+  <si>
+    <t>VPC 6</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>ID VLAN</t>
+  </si>
+  <si>
+    <t>HOST</t>
+  </si>
+  <si>
+    <t>PUERTO</t>
+  </si>
+  <si>
+    <t>fa0/10</t>
+  </si>
+  <si>
+    <t>fa0/11</t>
+  </si>
+  <si>
+    <t>fa0/12</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>VPC15</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>VPC 5</t>
+  </si>
+  <si>
+    <t>RRHH1</t>
+  </si>
+  <si>
+    <t>VPC 7</t>
+  </si>
+  <si>
+    <t>Informatica 1</t>
+  </si>
+  <si>
+    <t>IP ASIGNADA</t>
+  </si>
+  <si>
+    <t>192.168.09.10</t>
+  </si>
+  <si>
+    <t>192.168.09.20</t>
+  </si>
+  <si>
+    <t>192.168.09.40</t>
+  </si>
+  <si>
+    <t>192.168.09.11</t>
+  </si>
+  <si>
+    <t>192.168.09.41</t>
+  </si>
 </sst>
 </file>
 
@@ -484,12 +557,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,9 +577,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -533,6 +600,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -827,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,18 +985,18 @@
       <c r="BB1" s="1"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -957,16 +1043,16 @@
       <c r="BB2" s="1"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1070,10 +1156,10 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1184,7 +1270,7 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1"/>
@@ -1242,34 +1328,34 @@
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="1"/>
@@ -1320,28 +1406,28 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>25</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>30</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="N9" s="1"/>
@@ -1388,36 +1474,36 @@
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>12</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>14</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N10" s="1"/>
@@ -1464,36 +1550,36 @@
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>25</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>14</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="N11" s="1"/>
@@ -1540,36 +1626,36 @@
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>12</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>4</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>4</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>2</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="N12" s="1"/>
@@ -1616,22 +1702,22 @@
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>10</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1676,22 +1762,22 @@
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>4</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1740,14 +1826,14 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1848,11 +1934,11 @@
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1906,9 +1992,9 @@
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1962,13 +2048,13 @@
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="1"/>
@@ -2024,13 +2110,13 @@
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>25</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="1"/>
@@ -2086,13 +2172,13 @@
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>12</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="1"/>
@@ -2148,13 +2234,13 @@
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>10</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="1"/>
@@ -2210,13 +2296,13 @@
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="1"/>
@@ -2272,9 +2358,9 @@
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2327,21 +2413,21 @@
       <c r="BB24" s="1"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2440,10 +2526,10 @@
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2554,7 +2640,7 @@
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="1"/>
@@ -2612,34 +2698,34 @@
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="18" t="s">
         <v>29</v>
       </c>
       <c r="N30" s="1"/>
@@ -2690,28 +2776,28 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>1</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>20</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>30</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="6" t="s">
         <v>56</v>
       </c>
       <c r="N31" s="1"/>
@@ -2758,36 +2844,36 @@
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>2</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>5</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>6</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="6" t="s">
         <v>60</v>
       </c>
       <c r="N32" s="1"/>
@@ -2834,22 +2920,22 @@
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>20</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2894,22 +2980,22 @@
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>5</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2958,14 +3044,14 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3066,11 +3152,11 @@
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3124,9 +3210,9 @@
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3180,13 +3266,13 @@
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="1"/>
@@ -3242,13 +3328,13 @@
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>20</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E40" s="1"/>
@@ -3304,13 +3390,13 @@
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>5</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="1"/>
@@ -3421,21 +3507,21 @@
       <c r="BB42" s="1"/>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3590,10 +3676,10 @@
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3704,7 +3790,7 @@
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="1"/>
@@ -3762,34 +3848,34 @@
     </row>
     <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H49" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="23" t="s">
+      <c r="I49" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="J49" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="K49" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L49" s="23" t="s">
+      <c r="L49" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M49" s="23" t="s">
+      <c r="M49" s="21" t="s">
         <v>29</v>
       </c>
       <c r="N49" s="1"/>
@@ -3840,28 +3926,28 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <v>1</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>36</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>62</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M50" s="7" t="s">
+      <c r="M50" s="6" t="s">
         <v>72</v>
       </c>
       <c r="N50" s="1"/>
@@ -3908,36 +3994,36 @@
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>2</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>21</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <v>30</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="K51" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="L51" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M51" s="7" t="s">
+      <c r="M51" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N51" s="1"/>
@@ -3984,36 +4070,36 @@
     </row>
     <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>36</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <v>3</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <v>12</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <v>14</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="L52" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="M52" s="6" t="s">
         <v>80</v>
       </c>
       <c r="N52" s="1"/>
@@ -4060,36 +4146,36 @@
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>21</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>4</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <v>10</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <v>14</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="L53" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="6" t="s">
         <v>84</v>
       </c>
       <c r="N53" s="1"/>
@@ -4136,22 +4222,22 @@
     </row>
     <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>12</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4196,22 +4282,22 @@
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>10</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -4260,14 +4346,14 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -4368,11 +4454,11 @@
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -4426,9 +4512,9 @@
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -4482,13 +4568,13 @@
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="1"/>
@@ -4544,13 +4630,13 @@
     </row>
     <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>36</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="1"/>
@@ -4606,13 +4692,13 @@
     </row>
     <row r="62" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>21</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="1"/>
@@ -4668,13 +4754,13 @@
     </row>
     <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>12</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E63" s="1"/>
@@ -4730,13 +4816,13 @@
     </row>
     <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>10</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E64" s="1"/>
@@ -4792,9 +4878,9 @@
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -4847,21 +4933,21 @@
       <c r="BB65" s="1"/>
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -5016,10 +5102,10 @@
     </row>
     <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="17"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -5130,7 +5216,7 @@
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="1"/>
@@ -5188,34 +5274,34 @@
     </row>
     <row r="72" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="25" t="s">
+      <c r="G72" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I72" s="25" t="s">
+      <c r="I72" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="25" t="s">
+      <c r="J72" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="25" t="s">
+      <c r="K72" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L72" s="25" t="s">
+      <c r="L72" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M72" s="25" t="s">
+      <c r="M72" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N72" s="1"/>
@@ -5266,28 +5352,28 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <v>1</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="6">
         <v>30</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="6">
         <v>30</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K73" s="7" t="s">
+      <c r="K73" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L73" s="7" t="s">
+      <c r="L73" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="M73" s="7" t="s">
+      <c r="M73" s="6" t="s">
         <v>93</v>
       </c>
       <c r="N73" s="1"/>
@@ -5334,36 +5420,36 @@
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <v>2</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="6">
         <v>15</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="6">
         <v>14</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K74" s="7" t="s">
+      <c r="K74" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L74" s="7" t="s">
+      <c r="L74" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="M74" s="6" t="s">
         <v>97</v>
       </c>
       <c r="N74" s="1"/>
@@ -5410,36 +5496,36 @@
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>30</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <v>3</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="6">
         <v>10</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="6">
         <v>14</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K75" s="7" t="s">
+      <c r="K75" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L75" s="7" t="s">
+      <c r="L75" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="M75" s="7" t="s">
+      <c r="M75" s="6" t="s">
         <v>101</v>
       </c>
       <c r="N75" s="1"/>
@@ -5486,22 +5572,22 @@
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>15</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -5546,22 +5632,22 @@
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>10</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -5610,14 +5696,14 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -5718,11 +5804,11 @@
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -5776,9 +5862,9 @@
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -5832,13 +5918,13 @@
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E82" s="1"/>
@@ -5894,13 +5980,13 @@
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="7">
+      <c r="B83" s="6">
         <v>30</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E83" s="1"/>
@@ -5956,13 +6042,13 @@
     </row>
     <row r="84" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <v>15</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E84" s="1"/>
@@ -6018,13 +6104,13 @@
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="7">
+      <c r="B85" s="6">
         <v>10</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E85" s="1"/>
@@ -6080,9 +6166,9 @@
     </row>
     <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="7"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -6135,21 +6221,21 @@
       <c r="BB86" s="1"/>
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -6304,10 +6390,10 @@
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="15"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -6418,7 +6504,7 @@
     </row>
     <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C92" s="1"/>
@@ -6476,34 +6562,34 @@
     </row>
     <row r="93" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="27" t="s">
+      <c r="F93" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G93" s="27" t="s">
+      <c r="G93" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H93" s="27" t="s">
+      <c r="H93" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I93" s="27" t="s">
+      <c r="I93" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J93" s="27" t="s">
+      <c r="J93" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K93" s="27" t="s">
+      <c r="K93" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="L93" s="27" t="s">
+      <c r="L93" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M93" s="27" t="s">
+      <c r="M93" s="25" t="s">
         <v>29</v>
       </c>
       <c r="N93" s="1"/>
@@ -6554,28 +6640,28 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <v>1</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="6">
         <v>25</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="6">
         <v>30</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="I94" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K94" s="7" t="s">
+      <c r="K94" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L94" s="7" t="s">
+      <c r="L94" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M94" s="7" t="s">
+      <c r="M94" s="6" t="s">
         <v>107</v>
       </c>
       <c r="N94" s="1"/>
@@ -6622,36 +6708,36 @@
     </row>
     <row r="95" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <v>2</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="6">
         <v>10</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="6">
         <v>14</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I95" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="J95" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K95" s="7" t="s">
+      <c r="K95" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L95" s="7" t="s">
+      <c r="L95" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="M95" s="7" t="s">
+      <c r="M95" s="6" t="s">
         <v>111</v>
       </c>
       <c r="N95" s="1"/>
@@ -6698,36 +6784,36 @@
     </row>
     <row r="96" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>25</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <v>3</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96" s="6">
         <v>5</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="6">
         <v>6</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="J96" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K96" s="7" t="s">
+      <c r="K96" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="L96" s="7" t="s">
+      <c r="L96" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="M96" s="7" t="s">
+      <c r="M96" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N96" s="1"/>
@@ -6774,22 +6860,22 @@
     </row>
     <row r="97" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>10</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -6834,22 +6920,22 @@
     </row>
     <row r="98" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <v>5</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -6898,14 +6984,14 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -7006,11 +7092,11 @@
     </row>
     <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -7064,9 +7150,9 @@
     </row>
     <row r="102" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -7120,13 +7206,13 @@
     </row>
     <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D103" s="26" t="s">
+      <c r="D103" s="24" t="s">
         <v>16</v>
       </c>
       <c r="E103" s="1"/>
@@ -7182,13 +7268,13 @@
     </row>
     <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="7">
+      <c r="B104" s="6">
         <v>25</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E104" s="1"/>
@@ -7244,13 +7330,13 @@
     </row>
     <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="7">
+      <c r="B105" s="6">
         <v>10</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E105" s="1"/>
@@ -7306,13 +7392,13 @@
     </row>
     <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="7">
+      <c r="B106" s="6">
         <v>5</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E106" s="1"/>
@@ -7368,9 +7454,9 @@
     </row>
     <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="8"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="7"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -32350,4 +32436,176 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="28">
+        <v>18</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="28">
+        <v>28</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="28">
+        <v>38</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="28">
+        <v>48</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="28">
+        <v>18</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="28">
+        <v>48</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>